--- a/POMUI0/Data/Data.xlsx
+++ b/POMUI0/Data/Data.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Runmode</t>
   </si>
@@ -73,16 +72,49 @@
     <t>Hobbies</t>
   </si>
   <si>
-    <t>Dance</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>DateofBirth</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>vikas10489</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>vikas@gmail.com</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>viks</t>
+  </si>
+  <si>
+    <t>10/04/1989</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>8097722449</t>
   </si>
 </sst>
 </file>
@@ -172,7 +204,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -180,7 +212,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -521,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,14 +574,16 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -563,27 +603,36 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -598,37 +647,46 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5">
-        <v>32785</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,9 +697,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -660,9 +718,13 @@
     <hyperlink ref="H3" r:id="rId6" display="Ashish@123"/>
     <hyperlink ref="I3" r:id="rId7" display="Ashish@123"/>
     <hyperlink ref="J3" r:id="rId8" display="Ashish@123"/>
-    <hyperlink ref="K3" r:id="rId9" display="Ashish@123"/>
+    <hyperlink ref="K3" r:id="rId9"/>
+    <hyperlink ref="L3" r:id="rId10" display="Ashish@123"/>
+    <hyperlink ref="M3" r:id="rId11" display="Ashish@123"/>
+    <hyperlink ref="N3" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/POMUI0/Data/Data.xlsx
+++ b/POMUI0/Data/Data.xlsx
@@ -11,12 +11,12 @@
     <sheet name="TestData" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Runmode</t>
   </si>
@@ -39,15 +39,6 @@
     <t>TCID</t>
   </si>
   <si>
-    <t>SearchTest</t>
-  </si>
-  <si>
-    <t>ProfessionalTest</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>FormTest</t>
   </si>
   <si>
@@ -115,6 +106,21 @@
   </si>
   <si>
     <t>8097722449</t>
+  </si>
+  <si>
+    <t>PdfContentTest</t>
+  </si>
+  <si>
+    <t>PDF Name</t>
+  </si>
+  <si>
+    <t>Loan Number</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>400124274</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -221,6 +227,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,7 +545,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -546,10 +553,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +569,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A5" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,7 +587,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -591,40 +598,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>2</v>
@@ -638,40 +645,40 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -683,7 +690,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -691,21 +698,21 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/POMUI0/Data/Data.xlsx
+++ b/POMUI0/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="5880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:J10"/>
 </workbook>
 </file>
 
@@ -569,7 +570,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
